--- a/Code/Results/Cases/Case_2_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_66/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.47207738660677</v>
+        <v>0.8169493941477981</v>
       </c>
       <c r="C2">
-        <v>0.5928353953936778</v>
+        <v>0.2092783737809327</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.19642220482433</v>
+        <v>0.1175178547153592</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007812899563886161</v>
+        <v>0.00238735565926681</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9666815185050623</v>
+        <v>0.3392577148065001</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.771438541835991</v>
+        <v>1.400592669394598</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.151904094841768</v>
+        <v>0.7157122905342135</v>
       </c>
       <c r="C3">
-        <v>0.5245238981197531</v>
+        <v>0.1866659086233255</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1716298116254293</v>
+        <v>0.1126404932284544</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007859091811345978</v>
+        <v>0.002390247812993586</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.837120283685735</v>
+        <v>0.3013087131993402</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7513264749688489</v>
+        <v>1.422772324373781</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.955710859952745</v>
+        <v>0.6533906370119666</v>
       </c>
       <c r="C4">
-        <v>0.4826201675775224</v>
+        <v>0.1727166345719695</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1569466263403925</v>
+        <v>0.1097763865914061</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007888268444877371</v>
+        <v>0.002392116098657474</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7581459195146465</v>
+        <v>0.2780441076107536</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.743926887042619</v>
+        <v>1.438177764951178</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.875823298449291</v>
+        <v>0.6279546662132987</v>
       </c>
       <c r="C5">
-        <v>0.4655473926898992</v>
+        <v>0.1670161627931463</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1510850573692792</v>
+        <v>0.1086417655814529</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007900368822683871</v>
+        <v>0.002392900769607682</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7260832487085978</v>
+        <v>0.2685727353118068</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7420728768222062</v>
+        <v>1.444902954433047</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.862560807141023</v>
+        <v>0.6237287010290515</v>
       </c>
       <c r="C6">
-        <v>0.4627124879961286</v>
+        <v>0.1660686460082275</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1501187306058824</v>
+        <v>0.1084553178083709</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007902390970520659</v>
+        <v>0.002393032474630021</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7207658173006593</v>
+        <v>0.2670005745037329</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7418328262679381</v>
+        <v>1.446046626492759</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.954633260402375</v>
+        <v>0.6530477564214152</v>
       </c>
       <c r="C7">
-        <v>0.4823899130936411</v>
+        <v>0.1726398204527015</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1568670988433354</v>
+        <v>0.1097609534202775</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0007888430774263033</v>
+        <v>0.002392126586422775</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7577130569592541</v>
+        <v>0.2779163363016508</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7438972871315173</v>
+        <v>1.43826665460081</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.3615769207791</v>
+        <v>0.7820771138566442</v>
       </c>
       <c r="C8">
-        <v>0.5692691247132018</v>
+        <v>0.2014953137271789</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1877532797407895</v>
+        <v>0.1158088385134022</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007828661266799412</v>
+        <v>0.002388333720724924</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9218734674527198</v>
+        <v>0.3261653841679362</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7634250464888908</v>
+        <v>1.407868100628207</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.164542720562338</v>
+        <v>1.033778125808453</v>
       </c>
       <c r="C9">
-        <v>0.7402924273847589</v>
+        <v>0.2575516504853397</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2532723422635144</v>
+        <v>0.1287201521231793</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.000771763017728625</v>
+        <v>0.00238162650200551</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.2496029842833</v>
+        <v>0.4210728691165002</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8450083776273232</v>
+        <v>1.362526962267779</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.760313333988108</v>
+        <v>1.217857016578876</v>
       </c>
       <c r="C10">
-        <v>0.8668687710034533</v>
+        <v>0.298401128906761</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3054505912553722</v>
+        <v>0.1388689903986844</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007639391525113414</v>
+        <v>0.002377139450225376</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.495821234992434</v>
+        <v>0.4909915936955684</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9373753131118292</v>
+        <v>1.338040121227664</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.033307658732724</v>
+        <v>1.301409017770311</v>
       </c>
       <c r="C11">
-        <v>0.924784233486605</v>
+        <v>0.3169095383642286</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3303198675030927</v>
+        <v>0.1436346932775194</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007604418755583185</v>
+        <v>0.002375192887763537</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.609481528025711</v>
+        <v>0.5228439869388382</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9879153071533153</v>
+        <v>1.328843759633969</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.13703074940463</v>
+        <v>1.333020242912767</v>
       </c>
       <c r="C12">
-        <v>0.9467754986833938</v>
+        <v>0.3239072431668717</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.339923881176432</v>
+        <v>0.1454611262697867</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.000759125496256173</v>
+        <v>0.002374469306671813</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.652802728581463</v>
+        <v>0.5349123877010271</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.008415444494688</v>
+        <v>1.325642911820239</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.114675682661129</v>
+        <v>1.326213470400319</v>
       </c>
       <c r="C13">
-        <v>0.9420364210633636</v>
+        <v>0.3224006583058099</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3378467850710152</v>
+        <v>0.1450667977200908</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007594086636333038</v>
+        <v>0.002374624541699649</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.643459532410446</v>
+        <v>0.5323129488946705</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.003937501004998</v>
+        <v>1.326319711143839</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.041833707530259</v>
+        <v>1.304010262910822</v>
       </c>
       <c r="C14">
-        <v>0.9265921954834084</v>
+        <v>0.3174854667834097</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3311061124686887</v>
+        <v>0.1437845168311185</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007603334222946041</v>
+        <v>0.002375133087342158</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.613039707980988</v>
+        <v>0.5238367295732758</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9895737479640445</v>
+        <v>1.328574767162024</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.997262905076411</v>
+        <v>1.290406458988627</v>
       </c>
       <c r="C15">
-        <v>0.9171403351282095</v>
+        <v>0.3144733234227601</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3270022943017068</v>
+        <v>0.1430019274825156</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007609008717614366</v>
+        <v>0.002375446347596347</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.594444555942204</v>
+        <v>0.5186456581261325</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9809571368898844</v>
+        <v>1.329992795051993</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.742517428231281</v>
+        <v>1.212392834273373</v>
       </c>
       <c r="C16">
-        <v>0.8630915814023297</v>
+        <v>0.2971900367860769</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3038500906058275</v>
+        <v>0.1385605672657277</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007641688746061342</v>
+        <v>0.002377268561070587</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.488430105447364</v>
+        <v>0.4889108884531197</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9342552525800443</v>
+        <v>1.338680411120606</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.586787539962586</v>
+        <v>1.164485327832097</v>
       </c>
       <c r="C17">
-        <v>0.8300282682696434</v>
+        <v>0.2865680355234588</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2899532350628817</v>
+        <v>0.1358743312947794</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007661888914961836</v>
+        <v>0.002378410617027018</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.423846418143654</v>
+        <v>0.4706813353829489</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9078808795895839</v>
+        <v>1.344509179930157</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.497397699285045</v>
+        <v>1.136912727861557</v>
       </c>
       <c r="C18">
-        <v>0.8110419111593785</v>
+        <v>0.2804515759621609</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.282065236105737</v>
+        <v>0.1343432780673339</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007673566324731818</v>
+        <v>0.002379076407276104</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.386852517489729</v>
+        <v>0.4602005109381082</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8935042784908376</v>
+        <v>1.348044467757248</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.467161277351579</v>
+        <v>1.127574158799121</v>
       </c>
       <c r="C19">
-        <v>0.804618405910702</v>
+        <v>0.2783794624497773</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2794118665690064</v>
+        <v>0.1338272834950729</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007677530465934515</v>
+        <v>0.002379303364905898</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.374352053047971</v>
+        <v>0.4566526288373183</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8887688976863046</v>
+        <v>1.3492727720039</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.603345998828274</v>
+        <v>1.169586981167072</v>
       </c>
       <c r="C20">
-        <v>0.8335446469044143</v>
+        <v>0.2876994891715867</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2914215377639806</v>
+        <v>0.1361588343864852</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007659732551089303</v>
+        <v>0.002378288121411316</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.430705339066421</v>
+        <v>0.4726214542596239</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9106054318404233</v>
+        <v>1.343869769007682</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.063219245129687</v>
+        <v>1.310532656160944</v>
       </c>
       <c r="C21">
-        <v>0.9311268128808194</v>
+        <v>0.3189294797821844</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3330807477297029</v>
+        <v>0.1441605603535479</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007600615899040735</v>
+        <v>0.002374983348161656</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.62196677381219</v>
+        <v>0.5263262219632878</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9937546230462431</v>
+        <v>1.32790474176889</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.36582333851959</v>
+        <v>1.402484400018579</v>
       </c>
       <c r="C22">
-        <v>0.9952580739775954</v>
+        <v>0.3392756426386825</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3614076596647493</v>
+        <v>0.1495171742291248</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007562439006781018</v>
+        <v>0.002372902378112298</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.748625180710278</v>
+        <v>0.5614638000946286</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.056107468002352</v>
+        <v>1.319113177534945</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.204108143705696</v>
+        <v>1.353423490627392</v>
       </c>
       <c r="C23">
-        <v>0.9609932779305268</v>
+        <v>0.3284225248086159</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3461799186549754</v>
+        <v>0.1466465110719071</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007582776000685692</v>
+        <v>0.00237400583442919</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.680858275358887</v>
+        <v>0.5427067061326909</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.02204719632897</v>
+        <v>1.323654372325251</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.595859483926404</v>
+        <v>1.167280616850405</v>
       </c>
       <c r="C24">
-        <v>0.8319548239030894</v>
+        <v>0.287187989259877</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2907574037534459</v>
+        <v>0.1360301691402341</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.000766070724264018</v>
+        <v>0.002378343472990458</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.427604000097674</v>
+        <v>0.4717443278027531</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9093712225268007</v>
+        <v>1.344158272914882</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.946513642780189</v>
+        <v>0.9658322061433751</v>
       </c>
       <c r="C25">
-        <v>0.6939046854610922</v>
+        <v>0.2424448945706388</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2349176842247971</v>
+        <v>0.1251124759512905</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.000774704815733439</v>
+        <v>0.002383363249947042</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.160136063385217</v>
+        <v>0.395365415154231</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8177101480754772</v>
+        <v>1.373252201870187</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_66/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8169493941477981</v>
+        <v>2.472077386606884</v>
       </c>
       <c r="C2">
-        <v>0.2092783737809327</v>
+        <v>0.5928353953939336</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1175178547153592</v>
+        <v>0.1964222048243585</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.00238735565926681</v>
+        <v>0.0007812899563311922</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3392577148065001</v>
+        <v>0.9666815185050766</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.400592669394598</v>
+        <v>0.7714385418360479</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7157122905342135</v>
+        <v>2.151904094841541</v>
       </c>
       <c r="C3">
-        <v>0.1866659086233255</v>
+        <v>0.5245238981197531</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1126404932284544</v>
+        <v>0.1716298116254364</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002390247812993586</v>
+        <v>0.0007859091811333656</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3013087131993402</v>
+        <v>0.8371202836857563</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.422772324373781</v>
+        <v>0.7513264749688346</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6533906370119666</v>
+        <v>1.955710859952802</v>
       </c>
       <c r="C4">
-        <v>0.1727166345719695</v>
+        <v>0.4826201675775224</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1097763865914061</v>
+        <v>0.1569466263403996</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002392116098657474</v>
+        <v>0.0007888268445450707</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2780441076107536</v>
+        <v>0.7581459195146181</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.438177764951178</v>
+        <v>0.743926887042619</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6279546662132987</v>
+        <v>1.875823298449376</v>
       </c>
       <c r="C5">
-        <v>0.1670161627931463</v>
+        <v>0.4655473926902118</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1086417655814529</v>
+        <v>0.1510850573693077</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002392900769607682</v>
+        <v>0.0007900368823269263</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2685727353118068</v>
+        <v>0.7260832487086049</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.444902954433047</v>
+        <v>0.7420728768222347</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6237287010290515</v>
+        <v>1.862560807141023</v>
       </c>
       <c r="C6">
-        <v>0.1660686460082275</v>
+        <v>0.4627124879960718</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1084553178083709</v>
+        <v>0.1501187306058824</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002393032474630021</v>
+        <v>0.0007902390970355634</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2670005745037329</v>
+        <v>0.7207658173006735</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.446046626492759</v>
+        <v>0.7418328262679097</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6530477564214152</v>
+        <v>1.954633260402289</v>
       </c>
       <c r="C7">
-        <v>0.1726398204527015</v>
+        <v>0.4823899130936127</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1097609534202775</v>
+        <v>0.1568670988433212</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002392126586422775</v>
+        <v>0.0007888430775003986</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2779163363016508</v>
+        <v>0.7577130569592541</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.43826665460081</v>
+        <v>0.743897287131503</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7820771138566442</v>
+        <v>2.3615769207791</v>
       </c>
       <c r="C8">
-        <v>0.2014953137271789</v>
+        <v>0.5692691247131449</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1158088385134022</v>
+        <v>0.187753279740825</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002388333720724924</v>
+        <v>0.00078286612662129</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3261653841679362</v>
+        <v>0.9218734674527127</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.407868100628207</v>
+        <v>0.7634250464888908</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.033778125808453</v>
+        <v>3.164542720562565</v>
       </c>
       <c r="C9">
-        <v>0.2575516504853397</v>
+        <v>0.7402924273846168</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1287201521231793</v>
+        <v>0.2532723422634859</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.00238162650200551</v>
+        <v>0.0007717630177299956</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4210728691165002</v>
+        <v>1.2496029842833</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.362526962267779</v>
+        <v>0.8450083776273232</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.217857016578876</v>
+        <v>3.760313333988108</v>
       </c>
       <c r="C10">
-        <v>0.298401128906761</v>
+        <v>0.8668687710034533</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1388689903986844</v>
+        <v>0.305450591255358</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002377139450225376</v>
+        <v>0.0007639391525109528</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4909915936955684</v>
+        <v>1.495821234992462</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.338040121227664</v>
+        <v>0.9373753131118292</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.301409017770311</v>
+        <v>4.033307658732497</v>
       </c>
       <c r="C11">
-        <v>0.3169095383642286</v>
+        <v>0.9247842334862924</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1436346932775194</v>
+        <v>0.330319867503114</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002375192887763537</v>
+        <v>0.0007604418755988852</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5228439869388382</v>
+        <v>1.609481528025739</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.328843759633969</v>
+        <v>0.9879153071533153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.333020242912767</v>
+        <v>4.137030749404573</v>
       </c>
       <c r="C12">
-        <v>0.3239072431668717</v>
+        <v>0.9467754986838486</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1454611262697867</v>
+        <v>0.3399238811764462</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002374469306671813</v>
+        <v>0.0007591254962567646</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5349123877010271</v>
+        <v>1.652802728581491</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.325642911820239</v>
+        <v>1.008415444494688</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.326213470400319</v>
+        <v>4.114675682660959</v>
       </c>
       <c r="C13">
-        <v>0.3224006583058099</v>
+        <v>0.9420364210635341</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1450667977200908</v>
+        <v>0.3378467850710507</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002374624541699649</v>
+        <v>0.0007594086637261839</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5323129488946705</v>
+        <v>1.643459532410446</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.326319711143839</v>
+        <v>1.00393750100497</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.304010262910822</v>
+        <v>4.041833707530486</v>
       </c>
       <c r="C14">
-        <v>0.3174854667834097</v>
+        <v>0.9265921954834653</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1437845168311185</v>
+        <v>0.3311061124687384</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002375133087342158</v>
+        <v>0.0007603334222744106</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5238367295732758</v>
+        <v>1.613039707980974</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.328574767162024</v>
+        <v>0.9895737479640729</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.290406458988627</v>
+        <v>3.997262905076354</v>
       </c>
       <c r="C15">
-        <v>0.3144733234227601</v>
+        <v>0.9171403351280105</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1430019274825156</v>
+        <v>0.3270022943016997</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002375446347596347</v>
+        <v>0.000760900871684847</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5186456581261325</v>
+        <v>1.594444555942218</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.329992795051993</v>
+        <v>0.9809571368899128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.212392834273373</v>
+        <v>3.742517428231281</v>
       </c>
       <c r="C16">
-        <v>0.2971900367860769</v>
+        <v>0.8630915814023297</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1385605672657277</v>
+        <v>0.3038500906058275</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002377268561070587</v>
+        <v>0.0007641688746069764</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4889108884531197</v>
+        <v>1.488430105447378</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.338680411120606</v>
+        <v>0.9342552525800443</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.164485327832097</v>
+        <v>3.586787539962643</v>
       </c>
       <c r="C17">
-        <v>0.2865680355234588</v>
+        <v>0.830028268269615</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1358743312947794</v>
+        <v>0.2899532350628604</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002378410617027018</v>
+        <v>0.000766188891458089</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4706813353829489</v>
+        <v>1.423846418143668</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.344509179930157</v>
+        <v>0.9078808795895839</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.136912727861557</v>
+        <v>3.497397699285102</v>
       </c>
       <c r="C18">
-        <v>0.2804515759621609</v>
+        <v>0.811041911159549</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1343432780673339</v>
+        <v>0.2820652361056872</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002379076407276104</v>
+        <v>0.0007673566324532792</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4602005109381082</v>
+        <v>1.386852517489729</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.348044467757248</v>
+        <v>0.8935042784908376</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.127574158799121</v>
+        <v>3.467161277351579</v>
       </c>
       <c r="C19">
-        <v>0.2783794624497773</v>
+        <v>0.804618405910503</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1338272834950729</v>
+        <v>0.2794118665690277</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002379303364905898</v>
+        <v>0.0007677530465359444</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4566526288373183</v>
+        <v>1.374352053047957</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.3492727720039</v>
+        <v>0.8887688976863046</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.169586981167072</v>
+        <v>3.603345998828161</v>
       </c>
       <c r="C20">
-        <v>0.2876994891715867</v>
+        <v>0.8335446469042438</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1361588343864852</v>
+        <v>0.2914215377639735</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002378288121411316</v>
+        <v>0.0007659732551095964</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4726214542596239</v>
+        <v>1.430705339066435</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.343869769007682</v>
+        <v>0.9106054318404233</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.310532656160944</v>
+        <v>4.063219245129744</v>
       </c>
       <c r="C21">
-        <v>0.3189294797821844</v>
+        <v>0.93112681288099</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1441605603535479</v>
+        <v>0.3330807477297029</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002374983348161656</v>
+        <v>0.0007600615899025111</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5263262219632878</v>
+        <v>1.621966773812176</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.32790474176889</v>
+        <v>0.9937546230462999</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.402484400018579</v>
+        <v>4.365823338519533</v>
       </c>
       <c r="C22">
-        <v>0.3392756426386825</v>
+        <v>0.9952580739774533</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1495171742291248</v>
+        <v>0.3614076596647564</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002372902378112298</v>
+        <v>0.0007562439006782953</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5614638000946286</v>
+        <v>1.748625180710278</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.319113177534945</v>
+        <v>1.056107468002324</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.353423490627392</v>
+        <v>4.204108143705866</v>
       </c>
       <c r="C23">
-        <v>0.3284225248086159</v>
+        <v>0.9609932779301857</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1466465110719071</v>
+        <v>0.3461799186549754</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.00237400583442919</v>
+        <v>0.0007582776000892063</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5427067061326909</v>
+        <v>1.680858275358887</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.323654372325251</v>
+        <v>1.022047196328941</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.167280616850405</v>
+        <v>3.595859483926574</v>
       </c>
       <c r="C24">
-        <v>0.287187989259877</v>
+        <v>0.8319548239030325</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1360301691402341</v>
+        <v>0.2907574037534602</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002378343472990458</v>
+        <v>0.0007660707242453663</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4717443278027531</v>
+        <v>1.427604000097702</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.344158272914882</v>
+        <v>0.9093712225268575</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9658322061433751</v>
+        <v>2.946513642780303</v>
       </c>
       <c r="C25">
-        <v>0.2424448945706388</v>
+        <v>0.6939046854613196</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1251124759512905</v>
+        <v>0.2349176842247473</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002383363249947042</v>
+        <v>0.0007747048156596104</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.395365415154231</v>
+        <v>1.160136063385238</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.373252201870187</v>
+        <v>0.8177101480754914</v>
       </c>
     </row>
   </sheetData>
